--- a/App_Templates/Domestic_Template.xlsx
+++ b/App_Templates/Domestic_Template.xlsx
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -264,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +750,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,8 +809,8 @@
       <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
